--- a/data/data_inventory_consumption.xlsx
+++ b/data/data_inventory_consumption.xlsx
@@ -1,48 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiebach/Documents/11. semester/git/Speciale/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD0E7E9-59EB-A045-80C8-D19A6657A489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC5AAAA-F157-AA49-9BBB-8EF8A2ACBC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="-60" windowWidth="17940" windowHeight="16100" firstSheet="12" activeTab="13" xr2:uid="{4ABCB470-47AD-4A8F-A8F9-A418E061C63E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28700" windowHeight="16100" activeTab="1" xr2:uid="{4ABCB470-47AD-4A8F-A8F9-A418E061C63E}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
-    <sheet name="Priority 1" sheetId="18" r:id="rId2"/>
-    <sheet name="Priority 2" sheetId="19" r:id="rId3"/>
-    <sheet name="Priority 3" sheetId="20" r:id="rId4"/>
-    <sheet name="Priority 4" sheetId="21" r:id="rId5"/>
-    <sheet name="Priority 5" sheetId="22" r:id="rId6"/>
-    <sheet name="Priority 6" sheetId="23" r:id="rId7"/>
-    <sheet name="Priority 7" sheetId="24" r:id="rId8"/>
-    <sheet name="Priority 8" sheetId="25" r:id="rId9"/>
-    <sheet name="Priority 9" sheetId="26" r:id="rId10"/>
-    <sheet name="Priority 10" sheetId="27" r:id="rId11"/>
-    <sheet name="Priority 11" sheetId="28" r:id="rId12"/>
-    <sheet name="Priority 12" sheetId="29" r:id="rId13"/>
-    <sheet name="Priority 13" sheetId="30" r:id="rId14"/>
-    <sheet name="Priority 14" sheetId="31" r:id="rId15"/>
-    <sheet name="Priority 15" sheetId="17" r:id="rId16"/>
-    <sheet name="Priority 16" sheetId="16" r:id="rId17"/>
-    <sheet name="Priority 17" sheetId="15" r:id="rId18"/>
-    <sheet name="Priority 18" sheetId="13" r:id="rId19"/>
-    <sheet name="Priority 19" sheetId="12" r:id="rId20"/>
-    <sheet name="Priority 20" sheetId="11" r:id="rId21"/>
-    <sheet name="Priority 21" sheetId="10" r:id="rId22"/>
-    <sheet name="Priority 22" sheetId="9" r:id="rId23"/>
-    <sheet name="Priority 23" sheetId="8" r:id="rId24"/>
-    <sheet name="Priority 24" sheetId="7" r:id="rId25"/>
-    <sheet name="Priority 25" sheetId="6" r:id="rId26"/>
-    <sheet name="Priority 26" sheetId="2" r:id="rId27"/>
-    <sheet name="Priority 27" sheetId="5" r:id="rId28"/>
-    <sheet name="Priority 28" sheetId="4" r:id="rId29"/>
-    <sheet name="Priority 29" sheetId="14" r:id="rId30"/>
+    <sheet name="Mapping (2)" sheetId="32" r:id="rId2"/>
+    <sheet name="Priority 1" sheetId="18" r:id="rId3"/>
+    <sheet name="Priority 2" sheetId="19" r:id="rId4"/>
+    <sheet name="Priority 3" sheetId="20" r:id="rId5"/>
+    <sheet name="Priority 4" sheetId="21" r:id="rId6"/>
+    <sheet name="Priority 5" sheetId="22" r:id="rId7"/>
+    <sheet name="Priority 6" sheetId="23" r:id="rId8"/>
+    <sheet name="Priority 7" sheetId="24" r:id="rId9"/>
+    <sheet name="Priority 8" sheetId="25" r:id="rId10"/>
+    <sheet name="Priority 9" sheetId="26" r:id="rId11"/>
+    <sheet name="Priority 10" sheetId="27" r:id="rId12"/>
+    <sheet name="Priority 11" sheetId="28" r:id="rId13"/>
+    <sheet name="Priority 12" sheetId="29" r:id="rId14"/>
+    <sheet name="Priority 13" sheetId="30" r:id="rId15"/>
+    <sheet name="Priority 14" sheetId="31" r:id="rId16"/>
+    <sheet name="Priority 15" sheetId="17" r:id="rId17"/>
+    <sheet name="Priority 16" sheetId="16" r:id="rId18"/>
+    <sheet name="Priority 17" sheetId="15" r:id="rId19"/>
+    <sheet name="Priority 18" sheetId="13" r:id="rId20"/>
+    <sheet name="Priority 19" sheetId="12" r:id="rId21"/>
+    <sheet name="Priority 20" sheetId="11" r:id="rId22"/>
+    <sheet name="Priority 21" sheetId="10" r:id="rId23"/>
+    <sheet name="Priority 22" sheetId="9" r:id="rId24"/>
+    <sheet name="Priority 23" sheetId="8" r:id="rId25"/>
+    <sheet name="Priority 24" sheetId="7" r:id="rId26"/>
+    <sheet name="Priority 25" sheetId="6" r:id="rId27"/>
+    <sheet name="Priority 26" sheetId="2" r:id="rId28"/>
+    <sheet name="Priority 27" sheetId="5" r:id="rId29"/>
+    <sheet name="Priority 28" sheetId="4" r:id="rId30"/>
+    <sheet name="Priority 29" sheetId="14" r:id="rId31"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="40">
   <si>
     <t>DR1</t>
   </si>
@@ -116,6 +117,75 @@
   <si>
     <t>SOME</t>
   </si>
+  <si>
+    <t>Flagship</t>
+  </si>
+  <si>
+    <t>Kernen</t>
+  </si>
+  <si>
+    <t>Perspektiv</t>
+  </si>
+  <si>
+    <t>Perspektiv (enk.)</t>
+  </si>
+  <si>
+    <t>Reminder</t>
+  </si>
+  <si>
+    <t>Flow-tid</t>
+  </si>
+  <si>
+    <t>Flow-tid (enk.)</t>
+  </si>
+  <si>
+    <t>DR2+</t>
+  </si>
+  <si>
+    <t>Dilemma</t>
+  </si>
+  <si>
+    <t>DR3</t>
+  </si>
+  <si>
+    <t>Dilemma - Stacking</t>
+  </si>
+  <si>
+    <t>Flagskib</t>
+  </si>
+  <si>
+    <t>Identitet</t>
+  </si>
+  <si>
+    <t>Ultra</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>DRTV</t>
+  </si>
+  <si>
+    <t>Dilemma - Binge</t>
+  </si>
+  <si>
+    <t>BRAND_CHANNEL</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>DR Radio</t>
+  </si>
 </sst>
 </file>
 
@@ -124,9 +194,16 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -169,18 +246,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{A35FD651-A2A9-824D-9C2C-399AC86EF8F1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,22 +685,28 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD5B71D-7250-CB4F-A0C6-AE0B2B4101BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DC270B-5ADF-D74F-B3E0-B258FAFEF784}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -655,22 +741,22 @@
         <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="F2" s="2">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="H2" s="2">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -686,22 +772,22 @@
         <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -720,27 +806,27 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>17.399999999999999</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>17.399999999999999</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>13.2</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
@@ -751,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -763,27 +849,27 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>11.6</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>11.6</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>8.8000000000000007</v>
+        <v>35</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
@@ -794,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -849,27 +935,27 @@
       </c>
       <c r="C7">
         <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>2.1</v>
+        <v>1.47</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>3.36</v>
+        <v>1.89</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>1.96</v>
+        <v>1.47</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>1.68</v>
+        <v>1.47</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
@@ -892,27 +978,27 @@
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
-        <v>0.3</v>
+        <v>0.63</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>0.48</v>
+        <v>0.81</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>0.28000000000000003</v>
+        <v>0.63</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>0.24</v>
+        <v>0.63</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
@@ -923,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -978,27 +1064,27 @@
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>24.3</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>38.880000000000003</v>
+        <v>21.87</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>22.68</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>19.440000000000001</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15.39</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
@@ -1021,27 +1107,27 @@
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
-        <v>2.4</v>
+        <v>0.84</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>3.84</v>
+        <v>1.08</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>2.2400000000000002</v>
+        <v>0.84</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>1.92</v>
+        <v>0.84</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
@@ -1052,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1064,27 +1150,27 @@
       </c>
       <c r="C12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
@@ -1095,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1111,19 +1197,19 @@
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
@@ -1138,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1161,7 +1247,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1185,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2">
         <v>2</v>
@@ -1216,16 +1302,22 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B08AA5-77D2-C745-920E-5E25D76DA691}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD5B71D-7250-CB4F-A0C6-AE0B2B4101BE}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -1263,19 +1355,19 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -1294,16 +1386,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -1329,23 +1421,23 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>37.799999999999997</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>43.8</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
@@ -1372,23 +1464,23 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>25.2</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>29.2</v>
+        <v>11.6</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
@@ -1458,19 +1550,19 @@
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>2.97</v>
+        <v>3.36</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>3.87</v>
+        <v>1.96</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
@@ -1485,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -1501,19 +1593,19 @@
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>0.99</v>
+        <v>0.48</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>1.29</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
@@ -1528,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1548,11 +1640,11 @@
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>26.07</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>33.97</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
@@ -1571,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -1587,19 +1679,19 @@
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24.3</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>1.98</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>2.58</v>
+        <v>22.68</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
@@ -1614,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -1630,19 +1722,19 @@
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>0.99</v>
+        <v>3.84</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>1.29</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
@@ -1657,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -1716,19 +1808,19 @@
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
@@ -1743,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1766,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1793,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
         <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
       </c>
       <c r="G15" s="2">
         <v>1</v>
@@ -1821,16 +1913,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BEE583-BD1B-744B-A725-6D2C878F7F65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B08AA5-77D2-C745-920E-5E25D76DA691}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -1871,13 +1969,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F2" s="2">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -1902,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -1938,15 +2036,15 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>43.8</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
@@ -1961,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1981,15 +2079,15 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>25.2</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29.2</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
@@ -2004,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2067,11 +2165,11 @@
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.87</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
@@ -2090,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2110,11 +2208,11 @@
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
@@ -2133,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2153,11 +2251,11 @@
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>26.07</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>33.97</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
@@ -2176,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2196,11 +2294,11 @@
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
@@ -2219,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -2239,11 +2337,11 @@
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
@@ -2262,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -2371,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -2398,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -2417,7 +2515,7 @@
       </c>
       <c r="K15" s="2">
         <f>SUM(K7:K13)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2426,16 +2524,22 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BA78DF-1DF2-3341-8FE0-8AD6A397D9C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BEE583-BD1B-744B-A725-6D2C878F7F65}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -2476,13 +2580,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -2507,13 +2611,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -2543,15 +2647,15 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>31.6</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
@@ -2566,7 +2670,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2586,15 +2690,15 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>47.4</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
@@ -2609,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2672,15 +2776,15 @@
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
@@ -2695,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2715,15 +2819,15 @@
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
@@ -2738,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2801,15 +2905,15 @@
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>26.73</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>19.440000000000001</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>19.440000000000001</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
@@ -2824,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -2844,15 +2948,15 @@
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
@@ -2867,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -2930,15 +3034,15 @@
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
@@ -2953,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2970,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -3018,11 +3122,11 @@
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2">
         <f>SUM(K7:K13)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3031,16 +3135,22 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EE21B6-4F98-EC41-AD07-B655DE7EC89F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BA78DF-1DF2-3341-8FE0-8AD6A397D9C5}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -3081,13 +3191,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F2" s="2">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -3112,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F3" s="2">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -3148,15 +3258,15 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>50.4</v>
+        <v>31.6</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>67.2</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>50.4</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
@@ -3171,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3191,15 +3301,15 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>21.6</v>
+        <v>47.4</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>28.8</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>21.6</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
@@ -3214,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3277,15 +3387,15 @@
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>0.37</v>
+        <v>1.65</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>0.37</v>
+        <v>1.2</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
@@ -3300,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3320,15 +3430,15 @@
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
@@ -3343,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3363,15 +3473,15 @@
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>12.95</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>12.95</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
@@ -3386,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3406,15 +3516,15 @@
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>22.57</v>
+        <v>26.73</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>30.5</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>22.57</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
@@ -3429,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>61</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3449,15 +3559,15 @@
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
@@ -3472,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3535,15 +3645,15 @@
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>1.1100000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v>0.72</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>1.1100000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
@@ -3575,10 +3685,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -3590,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -3608,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -3623,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2">
         <f>SUM(K7:K13)</f>
@@ -3636,16 +3746,633 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DFE81C-3E3D-FE4B-AC8E-6ED32EF87C99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EE21B6-4F98-EC41-AD07-B655DE7EC89F}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1">
+        <v>-2</v>
+      </c>
+      <c r="D1">
+        <v>-1</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>72</v>
+      </c>
+      <c r="F2" s="2">
+        <v>96</v>
+      </c>
+      <c r="G2" s="2">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>50.4</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>67.2</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>50.4</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>21.6</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>28.8</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>21.6</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" ref="C6:J6" si="2">$C2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>0.37</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0.37</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>12.95</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="3"/>
+        <v>17.5</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="3"/>
+        <v>12.95</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>22.57</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="3"/>
+        <v>30.5</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>22.57</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3</v>
+      </c>
+      <c r="K15" s="2">
+        <f>SUM(K7:K13)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28DFE81C-3E3D-FE4B-AC8E-6ED32EF87C99}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -4192,17 +4919,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C41BABC-C5AE-0B45-B341-B93CFF67A8A0}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -4773,611 +5506,6 @@
       </c>
       <c r="I15" s="2">
         <v>1</v>
-      </c>
-      <c r="J15" s="2">
-        <v>2</v>
-      </c>
-      <c r="K15" s="2">
-        <f>SUM(K7:K13)</f>
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05522005-B2ED-304A-9C4B-C818DC598AD4}">
-  <dimension ref="A1:K15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C1">
-        <v>-2</v>
-      </c>
-      <c r="D1">
-        <v>-1</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
-        <v>2</v>
-      </c>
-      <c r="H1">
-        <v>3</v>
-      </c>
-      <c r="I1">
-        <v>4</v>
-      </c>
-      <c r="J1">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2">
-        <v>80</v>
-      </c>
-      <c r="F2" s="2">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2">
-        <v>31</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>80</v>
-      </c>
-      <c r="E3" s="2">
-        <v>100</v>
-      </c>
-      <c r="F3" s="2">
-        <v>75</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <f>C2*$K4/100</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:J4" si="0">D2*$K4/100</f>
-        <v>44.1</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>78.400000000000006</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>30.38</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>30.38</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <f>C2*$K5/100</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" ref="D5:J5" si="1">D2*$K5/100</f>
-        <v>0.9</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.62</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.62</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <f>C2*$K6/100</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <f>C$3*$K7/100</f>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7:J8" si="3">D$3*$K7/100</f>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <f>C$3*$K8/100</f>
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="4"/>
-        <v>37.5</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="4"/>
-        <v>22.5</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="4"/>
-        <v>34.4</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="4"/>
-        <v>32.25</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="4"/>
-        <v>19.350000000000001</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="4"/>
-        <v>5.6</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="4"/>
-        <v>5.25</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
-        <v>3.15</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>3</v>
-      </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
       </c>
       <c r="J15" s="2">
         <v>2</v>
@@ -5393,16 +5521,22 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9FAA08-E592-C546-9EFE-84136B2EB78D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05522005-B2ED-304A-9C4B-C818DC598AD4}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -5440,16 +5574,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -5471,16 +5605,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="F3" s="2">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="G3" s="2">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -5506,19 +5640,19 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:J4" si="0">D2*$K4/100</f>
-        <v>0</v>
+        <v>44.1</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.38</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30.38</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
@@ -5533,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -5549,19 +5683,19 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:J5" si="1">D2*$K5/100</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
@@ -5576,7 +5710,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -5721,19 +5855,19 @@
       </c>
       <c r="D9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <f t="shared" si="4"/>
-        <v>25.85</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>64.900000000000006</v>
+        <v>37.5</v>
       </c>
       <c r="G9">
         <f t="shared" si="4"/>
-        <v>39.049999999999997</v>
+        <v>22.5</v>
       </c>
       <c r="H9">
         <f t="shared" si="4"/>
@@ -5748,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -5764,19 +5898,19 @@
       </c>
       <c r="D10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>34.4</v>
       </c>
       <c r="E10">
         <f t="shared" si="4"/>
-        <v>16.920000000000002</v>
+        <v>43</v>
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
-        <v>42.48</v>
+        <v>32.25</v>
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
-        <v>25.56</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="H10">
         <f t="shared" si="4"/>
@@ -5791,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -5850,19 +5984,19 @@
       </c>
       <c r="D12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="E12">
         <f t="shared" si="4"/>
-        <v>4.2300000000000004</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>10.62</v>
+        <v>5.25</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
-        <v>6.39</v>
+        <v>3.15</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
@@ -5877,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -5952,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -5967,16 +6101,16 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -5998,16 +6132,25 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F53B346-D6CA-9D4C-86C0-CCD3D74D1B59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9FAA08-E592-C546-9EFE-84136B2EB78D}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -6045,16 +6188,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -6079,13 +6222,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -6197,19 +6340,19 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
@@ -6224,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -6330,15 +6473,15 @@
       </c>
       <c r="E9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>25.85</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="G9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>39.049999999999997</v>
       </c>
       <c r="H9">
         <f t="shared" si="4"/>
@@ -6353,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -6373,15 +6516,15 @@
       </c>
       <c r="E10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>42.48</v>
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>25.56</v>
       </c>
       <c r="H10">
         <f t="shared" si="4"/>
@@ -6396,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -6459,15 +6602,15 @@
       </c>
       <c r="E12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10.62</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.39</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
@@ -6482,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -6542,13 +6685,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -6557,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -6572,16 +6715,16 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2">
         <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -6594,7 +6737,7 @@
       </c>
       <c r="K15" s="2">
         <f>SUM(K7:K13)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6603,601 +6746,468 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EBEBB4-5268-F740-9C83-545EE2B2DD51}">
-  <dimension ref="A1:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3CF2C2-A3D4-FF41-B788-4F9B7350E5EA}">
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C1">
-        <v>-2</v>
-      </c>
-      <c r="D1">
-        <v>-1</v>
-      </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
-      </c>
-      <c r="G1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="H1">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="I1">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="J1">
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2">
-        <v>86</v>
-      </c>
-      <c r="D2" s="2">
-        <v>86</v>
-      </c>
-      <c r="E2" s="2">
-        <v>114</v>
-      </c>
-      <c r="F2" s="2">
-        <v>114</v>
-      </c>
-      <c r="G2" s="2">
-        <v>86</v>
-      </c>
-      <c r="H2" s="2">
-        <v>86</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="E3" s="2">
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="G3" s="2">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
-        <v>82.56</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>82.56</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>109.44</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>109.44</v>
-      </c>
-      <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>82.56</v>
-      </c>
-      <c r="H4" s="1">
-        <f t="shared" si="0"/>
-        <v>82.56</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
-        <v>3.44</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.44</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="1"/>
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="G5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.44</v>
-      </c>
-      <c r="H5" s="1">
-        <f t="shared" si="1"/>
-        <v>3.44</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" ref="C6:J6" si="2">$C2*$K6/100</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
-        <v>0.63</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="3"/>
-        <v>0.84</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>0.84</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="C32" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="3"/>
-        <v>0.21</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="3"/>
-        <v>0.21</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="3"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="3"/>
-        <v>0.21</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>0.21</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="C33" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="3"/>
-        <v>3.99</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="3"/>
-        <v>3.99</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="3"/>
-        <v>5.32</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
-        <v>5.32</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="3"/>
-        <v>3.99</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>3.99</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="C34" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="3"/>
-        <v>14.91</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="3"/>
-        <v>14.91</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
-        <v>19.88</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>19.88</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="3"/>
-        <v>14.91</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>14.91</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="C35" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="3"/>
-        <v>0.84</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
-        <v>0.84</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="C36" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="3"/>
-        <v>0.84</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
-        <v>0.84</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>0.63</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>2</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2"/>
+      <c r="C37" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7205,16 +7215,22 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0900FE42-DEF3-AD4D-8233-E77D6BFF956F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F53B346-D6CA-9D4C-86C0-CCD3D74D1B59}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -7252,16 +7268,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -7404,19 +7420,19 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
@@ -7779,16 +7795,16 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -7797,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" s="2">
         <f>SUM(K7:K13)</f>
@@ -7810,16 +7826,22 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320E5E6B-3822-3D48-AD5A-C084835E6C97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0900FE42-DEF3-AD4D-8233-E77D6BFF956F}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -7854,19 +7876,19 @@
         <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -7919,15 +7941,15 @@
       </c>
       <c r="C4" s="1">
         <f>C2*$K4/100</f>
-        <v>18.7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:J4" si="0">D2*$K4/100</f>
-        <v>18.7</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>12.1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
@@ -7950,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -8005,23 +8027,23 @@
       </c>
       <c r="C6" s="1">
         <f>C2*$K6/100</f>
-        <v>151.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
-        <v>151.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>97.9</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
@@ -8036,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -8354,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -8381,19 +8403,19 @@
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -8415,16 +8437,22 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6FD59A-06A5-DE48-9C20-BF9F17ADA0DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320E5E6B-3822-3D48-AD5A-C084835E6C97}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -8459,19 +8487,19 @@
         <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E2" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F2" s="2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -8524,23 +8552,23 @@
       </c>
       <c r="C4" s="1">
         <f>C2*$K4/100</f>
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:J4" si="0">D2*$K4/100</f>
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>12.1</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
@@ -8555,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -8610,23 +8638,23 @@
       </c>
       <c r="C6" s="1">
         <f>C2*$K6/100</f>
-        <v>0</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
-        <v>0</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>93.1</v>
+        <v>97.9</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>93.1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>93.1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
@@ -8641,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -8959,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -8986,19 +9014,19 @@
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -9020,16 +9048,22 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF3BE59-215C-EE49-89C1-0F21BAD178F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6FD59A-06A5-DE48-9C20-BF9F17ADA0DB}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -9070,13 +9104,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -9137,15 +9171,15 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
@@ -9160,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -9214,24 +9248,24 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f>$C2*$K6/100</f>
+        <f>C2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:I6" si="2">$C2*$K6/100</f>
+        <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>93.1</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>93.1</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>93.1</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="2"/>
@@ -9242,11 +9276,11 @@
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f>$C2*$K6/100</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -9594,25 +9628,25 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
         <v>2</v>
       </c>
-      <c r="E15" s="2">
-        <v>5</v>
-      </c>
       <c r="F15" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2">
         <f>SUM(K7:K13)</f>
@@ -9625,16 +9659,22 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BC04C9-2A50-3841-A76A-45FF9CCFEBDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF3BE59-215C-EE49-89C1-0F21BAD178F3}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -10199,25 +10239,25 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" s="2">
         <v>5</v>
       </c>
       <c r="F15" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K15" s="2">
         <f>SUM(K7:K13)</f>
@@ -10230,16 +10270,22 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98139FF4-5EF9-48AB-AD2E-1490E3453223}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BC04C9-2A50-3841-A76A-45FF9CCFEBDF}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -10807,13 +10853,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -10835,16 +10881,22 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BE8964-CA55-4475-89B3-D4B21D459457}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98139FF4-5EF9-48AB-AD2E-1490E3453223}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -10885,10 +10937,10 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -10952,11 +11004,11 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
@@ -10975,7 +11027,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -11412,13 +11464,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G15" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -11440,16 +11492,22 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEDE395-0630-4947-BD2E-BFEB85EC1F82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BE8964-CA55-4475-89B3-D4B21D459457}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -11490,13 +11548,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -11557,15 +11615,15 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>142.5</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>123.5</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
@@ -11580,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -11600,15 +11658,15 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
@@ -11623,7 +11681,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -11681,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:J7" si="3">D$3*$K7/100</f>
+        <f t="shared" ref="D7:J8" si="3">D$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="E7">
@@ -11724,31 +11782,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:J8" si="4">D$3*$K8/100</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
@@ -11763,35 +11821,35 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:J13" si="5">C$3*$K9/100</f>
+        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
@@ -11806,35 +11864,35 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
@@ -11849,35 +11907,35 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
@@ -11892,35 +11950,35 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
@@ -11935,35 +11993,35 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
@@ -12017,13 +12075,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F15" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -12034,7 +12092,10 @@
       <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <f>SUM(K7:K13)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12042,16 +12103,22 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E90B9F-DA55-4702-8030-4984ED7D0638}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABEDE395-0630-4947-BD2E-BFEB85EC1F82}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -12092,13 +12159,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F2" s="2">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="G2" s="2">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -12123,13 +12190,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -12159,15 +12226,15 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>142.5</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>47.5</v>
+        <v>123.5</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>47.5</v>
+        <v>114</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
@@ -12202,15 +12269,15 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
@@ -12283,20 +12350,20 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:J8" si="3">D$3*$K7/100</f>
+        <f t="shared" ref="D7:J7" si="3">D$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
@@ -12311,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -12326,31 +12393,31 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D8:J8" si="4">D$3*$K8/100</f>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
@@ -12365,39 +12432,39 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
+        <f t="shared" ref="C9:J13" si="5">C$3*$K9/100</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
-        <v>10.5</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
-        <v>21</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -12408,39 +12475,39 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
-        <v>15.9</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="4"/>
-        <v>31.8</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
-        <v>31.8</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -12451,35 +12518,35 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
@@ -12494,39 +12561,39 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
-        <v>2.4</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="4"/>
-        <v>4.8</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
-        <v>4.8</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -12537,35 +12604,35 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
@@ -12586,13 +12653,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -12622,10 +12689,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -12636,10 +12703,7 @@
       <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="K15" s="2">
-        <f>SUM(K7:K13)</f>
-        <v>100</v>
-      </c>
+      <c r="K15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12647,16 +12711,22 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F4849A-F22D-4D8B-BCE3-A3F6FA1BF8CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E90B9F-DA55-4702-8030-4984ED7D0638}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -12697,13 +12767,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -12728,13 +12798,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -12764,15 +12834,15 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>66.5</v>
+        <v>95</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>66.5</v>
+        <v>47.5</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>47.5</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
@@ -12807,15 +12877,15 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
@@ -12893,15 +12963,15 @@
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
@@ -12916,7 +12986,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -12979,15 +13049,15 @@
       </c>
       <c r="E9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="F9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H9">
         <f t="shared" si="4"/>
@@ -13002,7 +13072,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -13022,15 +13092,15 @@
       </c>
       <c r="E10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>15.9</v>
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>31.8</v>
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>31.8</v>
       </c>
       <c r="H10">
         <f t="shared" si="4"/>
@@ -13045,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -13108,15 +13178,15 @@
       </c>
       <c r="E12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
@@ -13131,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -13224,7 +13294,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -13243,7 +13313,7 @@
       </c>
       <c r="K15" s="2">
         <f>SUM(K7:K13)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -13252,16 +13322,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CD2CEC-2F95-384D-AAA1-E96B454E3618}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EBEBB4-5268-F740-9C83-545EE2B2DD51}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -13296,22 +13372,22 @@
         <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D2" s="2">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F2" s="2">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -13327,22 +13403,22 @@
         <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -13361,27 +13437,27 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
-        <v>0</v>
+        <v>82.56</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>82.56</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>109.44</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>109.44</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>82.56</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82.56</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
@@ -13392,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -13404,27 +13480,27 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
@@ -13435,7 +13511,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -13490,27 +13566,27 @@
       </c>
       <c r="C7">
         <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
+        <v>0.63</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
         <v>0.84</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>0.34</v>
+        <v>0.84</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>0.34</v>
+        <v>0.63</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
@@ -13521,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -13533,27 +13609,27 @@
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
@@ -13564,7 +13640,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -13576,27 +13652,27 @@
       </c>
       <c r="C9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.99</v>
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
-        <v>7.14</v>
+        <v>3.99</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>4.25</v>
+        <v>5.32</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>2.89</v>
+        <v>5.32</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>2.89</v>
+        <v>3.99</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.99</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
@@ -13607,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -13619,27 +13695,27 @@
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14.91</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>31.5</v>
+        <v>14.91</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>18.75</v>
+        <v>19.88</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>12.75</v>
+        <v>19.88</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>12.75</v>
+        <v>14.91</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14.91</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
@@ -13650,7 +13726,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -13662,27 +13738,27 @@
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
@@ -13693,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -13709,19 +13785,19 @@
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
@@ -13736,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -13748,27 +13824,27 @@
       </c>
       <c r="C13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
-        <v>1.26</v>
+        <v>0.63</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>0.51</v>
+        <v>0.84</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>0.51</v>
+        <v>0.63</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
@@ -13832,10 +13908,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -13846,10 +13922,7 @@
       <c r="J15" s="2">
         <v>0</v>
       </c>
-      <c r="K15" s="2">
-        <f>SUM(K7:K13)</f>
-        <v>100</v>
-      </c>
+      <c r="K15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13857,16 +13930,636 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E019A930-7FD5-9840-88F3-540B1513F9CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F4849A-F22D-4D8B-BCE3-A3F6FA1BF8CD}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1">
+        <v>-2</v>
+      </c>
+      <c r="D1">
+        <v>-1</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>70</v>
+      </c>
+      <c r="F2" s="2">
+        <v>70</v>
+      </c>
+      <c r="G2" s="2">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:J4" si="0">D2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:J5" si="1">D2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <f>$C2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:I6" si="2">$C2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f>$C2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>C$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:J8" si="3">D$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>C$3*$K8/100</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <f>SUM(K7:K13)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E019A930-7FD5-9840-88F3-540B1513F9CC}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -14462,16 +15155,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA6DD44-07BB-5342-8ACC-11263285DC42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CD2CEC-2F95-384D-AAA1-E96B454E3618}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -14509,16 +15208,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="F2" s="2">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="G2" s="2">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -14540,16 +15239,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -14575,19 +15274,19 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>63.9</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>85.5</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>81.900000000000006</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
@@ -14602,7 +15301,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -14622,15 +15321,15 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
@@ -14645,7 +15344,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -14704,19 +15403,19 @@
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>3.35</v>
+        <v>0.5</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>4.2</v>
+        <v>0.34</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>3.35</v>
+        <v>0.34</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
@@ -14731,7 +15430,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -14751,15 +15450,15 @@
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>3.36</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
@@ -14774,7 +15473,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -14790,19 +15489,19 @@
       </c>
       <c r="D9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.14</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>7.37</v>
+        <v>4.25</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>9.24</v>
+        <v>2.89</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>7.37</v>
+        <v>2.89</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
@@ -14817,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -14833,19 +15532,19 @@
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>51.59</v>
+        <v>18.75</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>64.680000000000007</v>
+        <v>12.75</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>51.59</v>
+        <v>12.75</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
@@ -14860,7 +15559,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -14880,15 +15579,15 @@
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>2.0099999999999998</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>2.52</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>2.0099999999999998</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
@@ -14903,7 +15602,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -14919,19 +15618,19 @@
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
@@ -14946,7 +15645,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -14962,19 +15661,19 @@
       </c>
       <c r="D13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.51</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
@@ -14989,7 +15688,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -15012,7 +15711,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -15036,16 +15735,16 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
         <v>2</v>
       </c>
       <c r="F15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -15067,16 +15766,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749DD96B-D8ED-5D4B-B9D6-B73F4DA23B52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA6DD44-07BB-5342-8ACC-11263285DC42}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -15117,13 +15822,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -15148,13 +15853,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -15184,15 +15889,15 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>63.9</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85.5</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>81.900000000000006</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
@@ -15227,15 +15932,15 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>7.1</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
@@ -15313,15 +16018,15 @@
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
@@ -15356,15 +16061,15 @@
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>2.4</v>
+        <v>2.68</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.36</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
@@ -15399,15 +16104,15 @@
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>6.6</v>
+        <v>7.37</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.24</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.37</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
@@ -15442,15 +16147,15 @@
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>46.2</v>
+        <v>51.59</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>64.680000000000007</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>51.59</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
@@ -15485,15 +16190,15 @@
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>1.8</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
@@ -15647,7 +16352,7 @@
         <v>2</v>
       </c>
       <c r="F15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -15672,16 +16377,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10772A96-CD20-9043-9BD2-5B58C9AE08E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749DD96B-D8ED-5D4B-B9D6-B73F4DA23B52}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -15722,13 +16436,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="F2" s="2">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -15753,7 +16467,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -15789,15 +16503,15 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
@@ -15812,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -15832,7 +16546,7 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
@@ -15855,7 +16569,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -15918,7 +16632,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
@@ -15941,7 +16655,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -15961,7 +16675,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
@@ -15984,7 +16698,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -16004,7 +16718,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
@@ -16027,7 +16741,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -16047,7 +16761,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>46.2</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
@@ -16070,7 +16784,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -16090,7 +16804,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
@@ -16113,7 +16827,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -16222,7 +16936,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -16249,13 +16963,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -16268,7 +16982,7 @@
       </c>
       <c r="K15" s="2">
         <f>SUM(K7:K13)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -16277,16 +16991,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC9018C-0412-9548-9664-C4CFAB1225BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10772A96-CD20-9043-9BD2-5B58C9AE08E9}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -16327,16 +17047,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>147</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H2" s="2">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -16358,16 +17078,16 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -16394,19 +17114,19 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>141.12</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>63.36</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>63.36</v>
+        <v>53</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>42.24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
@@ -16417,7 +17137,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -16437,19 +17157,19 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>5.88</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>2.64</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>1.76</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
@@ -16460,7 +17180,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -16523,19 +17243,19 @@
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
@@ -16546,7 +17266,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -16566,19 +17286,19 @@
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
@@ -16589,7 +17309,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -16652,19 +17372,19 @@
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>56.96</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>28.48</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>28.48</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>28.48</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
@@ -16675,7 +17395,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -16695,19 +17415,19 @@
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
@@ -16718,7 +17438,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -16821,13 +17541,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -16854,7 +17574,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -16863,17 +17583,17 @@
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2">
         <f>SUM(K7:K13)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16882,16 +17602,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C84043-EDC1-9A46-9BDB-7FE14614D17E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC9018C-0412-9548-9664-C4CFAB1225BA}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -16932,16 +17658,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -16963,16 +17689,16 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -16999,19 +17725,19 @@
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>80.959999999999994</v>
+        <v>141.12</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63.36</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63.36</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42.24</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
@@ -17022,7 +17748,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -17042,19 +17768,19 @@
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>7.04</v>
+        <v>5.88</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
@@ -17065,7 +17791,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -17128,19 +17854,19 @@
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
@@ -17151,7 +17877,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -17171,19 +17897,19 @@
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
@@ -17194,7 +17920,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -17257,19 +17983,19 @@
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>56.96</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>28.48</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>28.48</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>28.48</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
@@ -17280,7 +18006,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -17300,19 +18026,19 @@
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
@@ -17323,7 +18049,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -17459,26 +18185,26 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K15" s="2">
         <f>SUM(K7:K13)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -17487,16 +18213,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DC270B-5ADF-D74F-B3E0-B258FAFEF784}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C84043-EDC1-9A46-9BDB-7FE14614D17E}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
       <c r="C1">
         <v>-2</v>
       </c>
@@ -17531,22 +18266,22 @@
         <v>13</v>
       </c>
       <c r="C2" s="2">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="F2" s="2">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
@@ -17562,22 +18297,22 @@
         <v>14</v>
       </c>
       <c r="C3" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -17596,27 +18331,27 @@
       </c>
       <c r="C4" s="1">
         <f t="shared" ref="C4:J4" si="0">C2*$K4/100</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>80.959999999999994</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
@@ -17627,7 +18362,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -17639,27 +18374,27 @@
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:J5" si="1">C2*$K5/100</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>7.04</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
@@ -17670,7 +18405,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -17725,27 +18460,27 @@
       </c>
       <c r="C7">
         <f t="shared" ref="C7:J13" si="3">C$3*$K7/100</f>
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <f t="shared" si="3"/>
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
@@ -17756,7 +18491,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -17768,27 +18503,27 @@
       </c>
       <c r="C8">
         <f t="shared" si="3"/>
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <f t="shared" si="3"/>
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>0.81</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>0.56999999999999995</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
@@ -17799,7 +18534,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -17854,27 +18589,27 @@
       </c>
       <c r="C10">
         <f t="shared" si="3"/>
-        <v>17.010000000000002</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>17.010000000000002</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>21.87</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <f t="shared" si="3"/>
-        <v>17.010000000000002</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>17.010000000000002</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>15.39</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
@@ -17885,7 +18620,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -17897,27 +18632,27 @@
       </c>
       <c r="C11">
         <f t="shared" si="3"/>
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
@@ -17928,7 +18663,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -17940,27 +18675,27 @@
       </c>
       <c r="C12">
         <f t="shared" si="3"/>
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <f t="shared" si="3"/>
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
@@ -17971,7 +18706,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -18031,10 +18766,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -18061,16 +18796,16 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -18083,7 +18818,7 @@
       </c>
       <c r="K15" s="2">
         <f>SUM(K7:K13)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_inventory_consumption.xlsx
+++ b/data/data_inventory_consumption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiebach/Documents/11. semester/git/Speciale/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3669516081e98610/Dokumenter/Uni/Speciale/Git/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC5AAAA-F157-AA49-9BBB-8EF8A2ACBC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{2AC5AAAA-F157-AA49-9BBB-8EF8A2ACBC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF8B1669-7221-4FBB-BC25-62D81DD2AA0E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28700" windowHeight="16100" activeTab="1" xr2:uid="{4ABCB470-47AD-4A8F-A8F9-A418E061C63E}"/>
+    <workbookView xWindow="43080" yWindow="2160" windowWidth="25440" windowHeight="15270" firstSheet="23" activeTab="31" xr2:uid="{4ABCB470-47AD-4A8F-A8F9-A418E061C63E}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,7 @@
     <sheet name="Priority 27" sheetId="5" r:id="rId29"/>
     <sheet name="Priority 28" sheetId="4" r:id="rId30"/>
     <sheet name="Priority 29" sheetId="14" r:id="rId31"/>
+    <sheet name="Priority 37" sheetId="33" r:id="rId32"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="40">
   <si>
     <t>DR1</t>
   </si>
@@ -251,11 +252,12 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -578,9 +580,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -588,7 +590,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -596,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -604,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -612,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -620,7 +622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -628,7 +630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -636,7 +638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -644,7 +646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -652,7 +654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -660,7 +662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -668,7 +670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -676,7 +678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -695,12 +697,12 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -735,7 +737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -766,7 +768,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -797,7 +799,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -840,7 +842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -883,7 +885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -926,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -969,7 +971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1012,7 +1014,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1055,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1098,7 +1100,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1141,7 +1143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1184,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1227,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1241,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -1260,7 +1262,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1306,12 +1308,12 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1346,7 +1348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -1377,7 +1379,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -1408,7 +1410,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1451,7 +1453,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1494,7 +1496,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1580,7 +1582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1623,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1666,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1709,7 +1711,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1752,7 +1754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1795,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1838,7 +1840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1852,13 +1854,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>2310000</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1871,7 +1873,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1917,12 +1919,12 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1957,7 +1959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -1988,7 +1990,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -2019,7 +2021,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2062,7 +2064,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2105,7 +2107,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2148,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2191,7 +2193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2234,7 +2236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2277,7 +2279,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2320,7 +2322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2363,7 +2365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2406,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2449,7 +2451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2463,10 +2465,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -2478,11 +2480,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2511,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2">
         <f>SUM(K7:K13)</f>
@@ -2528,12 +2530,12 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2568,7 +2570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -2599,7 +2601,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -2630,7 +2632,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2673,7 +2675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2716,7 +2718,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2759,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2802,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2845,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2888,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2931,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2974,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3017,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3060,7 +3062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3074,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -3093,7 +3095,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3142,9 +3144,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3179,7 +3181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -3210,7 +3212,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -3241,7 +3243,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3284,7 +3286,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3327,7 +3329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3370,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3413,7 +3415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3456,7 +3458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3499,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3542,7 +3544,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3585,7 +3587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3628,7 +3630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3671,7 +3673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3704,7 +3706,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3750,12 +3752,12 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -3790,7 +3792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -3821,7 +3823,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -3852,7 +3854,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3895,7 +3897,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3938,7 +3940,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3981,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4024,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4067,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4110,7 +4112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4153,7 +4155,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4196,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4239,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4282,7 +4284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -4296,10 +4298,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -4311,11 +4313,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>2</v>
+        <v>2000000</v>
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4364,9 +4366,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -4401,7 +4403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -4418,7 +4420,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -4435,7 +4437,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4476,7 +4478,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4517,7 +4519,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4558,7 +4560,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4599,7 +4601,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4640,7 +4642,7 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4681,7 +4683,7 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4722,7 +4724,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4763,7 +4765,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4804,7 +4806,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4845,7 +4847,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -4878,7 +4880,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4924,12 +4926,12 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -4964,7 +4966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -4995,7 +4997,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -5026,7 +5028,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5069,7 +5071,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5112,7 +5114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5153,7 +5155,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5194,7 +5196,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5235,7 +5237,7 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5278,7 +5280,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -5321,7 +5323,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -5362,7 +5364,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -5405,7 +5407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -5446,7 +5448,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -5460,13 +5462,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>1960000</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>1960000</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>1980000</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -5475,11 +5477,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>3</v>
+        <v>2000000</v>
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -5525,12 +5527,12 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -5565,7 +5567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -5596,7 +5598,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -5627,7 +5629,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5670,7 +5672,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5713,7 +5715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5756,7 +5758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5799,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5842,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5885,7 +5887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -5928,7 +5930,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -5971,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -6014,7 +6016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -6057,7 +6059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -6071,13 +6073,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>1960000</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>1980000</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -6086,11 +6088,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>3</v>
+        <v>2000000</v>
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -6136,15 +6138,15 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -6179,7 +6181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -6210,7 +6212,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -6241,7 +6243,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6284,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -6327,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -6370,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -6413,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -6456,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -6499,7 +6501,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -6542,7 +6544,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -6585,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -6628,7 +6630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -6671,7 +6673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -6685,13 +6687,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -6700,11 +6702,11 @@
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>4</v>
+        <v>2000000</v>
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -6749,19 +6751,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3CF2C2-A3D4-FF41-B788-4F9B7350E5EA}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A19" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.796875" style="3"/>
     <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="22.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -6778,7 +6780,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6795,7 +6797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -6812,7 +6814,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6829,7 +6831,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -6846,7 +6848,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -6857,7 +6859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -6868,7 +6870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -6879,7 +6881,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -6890,7 +6892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -6901,7 +6903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -6912,7 +6914,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -6923,7 +6925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -6934,7 +6936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -6945,7 +6947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -6956,7 +6958,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -6967,7 +6969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -6978,7 +6980,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -6989,7 +6991,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -7000,7 +7002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -7011,7 +7013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -7022,7 +7024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -7033,7 +7035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -7044,7 +7046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -7055,7 +7057,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -7066,7 +7068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -7077,7 +7079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -7088,7 +7090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -7099,7 +7101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -7110,7 +7112,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -7121,7 +7123,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -7132,7 +7134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -7143,7 +7145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -7154,7 +7156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -7165,7 +7167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -7176,7 +7178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -7187,7 +7189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -7198,7 +7200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -7222,9 +7224,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7259,7 +7261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -7290,7 +7292,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -7321,7 +7323,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7364,7 +7366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7407,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -7450,7 +7452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -7493,7 +7495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -7536,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -7579,7 +7581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -7622,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -7665,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -7708,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -7751,7 +7753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -7784,7 +7786,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -7833,9 +7835,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7870,7 +7872,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -7901,7 +7903,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -7932,7 +7934,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7975,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8018,7 +8020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8061,7 +8063,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8104,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -8147,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8190,7 +8192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -8233,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -8276,7 +8278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -8319,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -8362,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -8395,7 +8397,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -8444,9 +8446,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -8481,7 +8483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -8512,7 +8514,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -8543,7 +8545,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8586,7 +8588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8629,7 +8631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8672,7 +8674,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8715,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -8758,7 +8760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8801,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -8844,7 +8846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -8887,7 +8889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -8930,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -8973,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -9006,7 +9008,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -9055,9 +9057,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -9092,7 +9094,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -9123,7 +9125,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -9154,7 +9156,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9197,7 +9199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9240,7 +9242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9283,7 +9285,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -9326,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9369,7 +9371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9412,7 +9414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -9455,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -9541,7 +9543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -9584,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -9617,7 +9619,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -9666,9 +9668,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -9703,7 +9705,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -9734,7 +9736,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -9765,7 +9767,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9808,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9851,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9894,7 +9896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -9937,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9980,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -10023,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -10066,7 +10068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -10152,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -10195,7 +10197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -10228,7 +10230,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -10277,9 +10279,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -10314,7 +10316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -10345,7 +10347,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -10376,7 +10378,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10419,7 +10421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -10462,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -10505,7 +10507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -10548,7 +10550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -10591,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -10634,7 +10636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -10677,7 +10679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -10720,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -10763,7 +10765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -10806,7 +10808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -10839,7 +10841,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -10888,9 +10890,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -10925,7 +10927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -10956,7 +10958,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -10987,7 +10989,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -11030,7 +11032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -11073,7 +11075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -11116,7 +11118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -11159,7 +11161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -11202,7 +11204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -11245,7 +11247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -11288,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -11331,7 +11333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -11374,7 +11376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -11417,7 +11419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -11450,7 +11452,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -11499,9 +11501,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -11536,7 +11538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -11567,7 +11569,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -11598,7 +11600,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -11641,7 +11643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -11684,7 +11686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -11727,7 +11729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -11770,7 +11772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -11813,7 +11815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -11856,7 +11858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -11899,7 +11901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -11942,7 +11944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -11985,7 +11987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -12028,7 +12030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -12061,7 +12063,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -12110,9 +12112,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -12147,7 +12149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -12178,7 +12180,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -12209,7 +12211,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -12252,7 +12254,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -12295,7 +12297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -12338,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -12381,7 +12383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -12424,7 +12426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -12467,7 +12469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -12510,7 +12512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -12553,7 +12555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -12596,7 +12598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -12639,7 +12641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -12672,7 +12674,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -12718,9 +12720,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -12755,7 +12757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -12786,7 +12788,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -12817,7 +12819,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -12860,7 +12862,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -12903,7 +12905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -12946,7 +12948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -12989,7 +12991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -13032,7 +13034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -13075,7 +13077,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -13118,7 +13120,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -13161,7 +13163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -13204,7 +13206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -13247,7 +13249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -13280,7 +13282,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -13326,12 +13328,17 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13366,7 +13373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -13397,7 +13404,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -13428,7 +13435,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -13471,7 +13478,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -13514,7 +13521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -13557,7 +13564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -13600,7 +13607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -13643,7 +13650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -13686,7 +13693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -13729,7 +13736,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -13772,7 +13779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -13815,7 +13822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -13858,7 +13865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -13871,14 +13878,14 @@
       <c r="D14" s="2">
         <v>0</v>
       </c>
-      <c r="E14" s="2">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1</v>
+      <c r="E14" s="4">
+        <v>2970000</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="G14" s="4">
+        <v>3000000</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -13891,7 +13898,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -13937,9 +13944,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -13974,7 +13981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -14005,7 +14012,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -14036,7 +14043,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -14079,7 +14086,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -14122,7 +14129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -14165,7 +14172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -14208,7 +14215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -14251,7 +14258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -14294,7 +14301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -14337,7 +14344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -14380,7 +14387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -14423,7 +14430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -14466,7 +14473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -14499,7 +14506,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -14545,15 +14552,15 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -14588,7 +14595,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -14619,7 +14626,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -14650,7 +14657,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -14693,7 +14700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -14736,7 +14743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -14779,7 +14786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -14822,7 +14829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -14865,7 +14872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -14908,7 +14915,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -14951,7 +14958,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -14994,7 +15001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -15037,7 +15044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -15080,7 +15087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -15094,10 +15101,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>1960000</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>1960000</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -15106,14 +15113,14 @@
         <v>0</v>
       </c>
       <c r="I14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -15147,6 +15154,582 @@
       <c r="K15" s="2">
         <f>SUM(K7:K13)</f>
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AA1E49-D152-4965-A7B7-E3C0F1662842}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1">
+        <v>-2</v>
+      </c>
+      <c r="D1">
+        <v>-1</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:J4" si="0">D2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>106.3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>106.3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>106.3</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:J5" si="1">D2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="G5" s="1">
+        <v>18.8</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <f>C2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>C$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:J8" si="3">D$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>C$3*$K8/100</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>52</v>
+      </c>
+      <c r="F10">
+        <v>52</v>
+      </c>
+      <c r="G10">
+        <v>52</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <f>SUM(K7:K13)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -15159,12 +15742,12 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15199,7 +15782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -15230,7 +15813,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -15261,7 +15844,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -15304,7 +15887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -15347,7 +15930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -15390,7 +15973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -15433,7 +16016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -15476,7 +16059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -15519,7 +16102,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -15562,7 +16145,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -15605,7 +16188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -15648,7 +16231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -15691,7 +16274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -15705,13 +16288,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>2100000</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>2100000</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>2100000</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -15724,7 +16307,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -15770,12 +16353,15 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15810,7 +16396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -15841,7 +16427,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -15872,7 +16458,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -15915,7 +16501,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -15958,7 +16544,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -16001,7 +16587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -16044,7 +16630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -16087,7 +16673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -16130,7 +16716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -16173,7 +16759,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -16216,7 +16802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -16259,7 +16845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -16302,7 +16888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -16316,10 +16902,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -16335,7 +16921,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -16381,15 +16967,15 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16424,7 +17010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -16455,7 +17041,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -16486,7 +17072,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -16529,7 +17115,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -16572,7 +17158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -16615,7 +17201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -16658,7 +17244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -16701,7 +17287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -16744,7 +17330,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -16787,7 +17373,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -16830,7 +17416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -16873,7 +17459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -16916,7 +17502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -16930,10 +17516,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -16949,7 +17535,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -16995,12 +17581,12 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17035,7 +17621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -17066,7 +17652,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -17097,7 +17683,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -17140,7 +17726,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -17183,7 +17769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -17226,7 +17812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -17269,7 +17855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -17312,7 +17898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -17355,7 +17941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -17398,7 +17984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -17441,7 +18027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -17484,7 +18070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -17527,7 +18113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -17541,13 +18127,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="F14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>2000000</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -17560,7 +18146,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -17609,9 +18195,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17646,7 +18232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -17677,7 +18263,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -17708,7 +18294,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -17751,7 +18337,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -17794,7 +18380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -17837,7 +18423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -17880,7 +18466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -17923,7 +18509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -17966,7 +18552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -18009,7 +18595,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -18052,7 +18638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -18095,7 +18681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -18138,7 +18724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -18171,7 +18757,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -18220,12 +18806,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18260,7 +18846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -18291,7 +18877,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -18322,7 +18908,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -18365,7 +18951,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -18408,7 +18994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -18451,7 +19037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -18494,7 +19080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -18537,7 +19123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -18580,7 +19166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -18623,7 +19209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -18666,7 +19252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -18709,7 +19295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -18752,7 +19338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -18785,7 +19371,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>

--- a/data/data_inventory_consumption.xlsx
+++ b/data/data_inventory_consumption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3669516081e98610/Dokumenter/Uni/Speciale/Git/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{2AC5AAAA-F157-AA49-9BBB-8EF8A2ACBC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF8B1669-7221-4FBB-BC25-62D81DD2AA0E}"/>
+  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{2AC5AAAA-F157-AA49-9BBB-8EF8A2ACBC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8E38C89-9E94-4315-938A-FBC9B3A5FCFF}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="2160" windowWidth="25440" windowHeight="15270" firstSheet="23" activeTab="31" xr2:uid="{4ABCB470-47AD-4A8F-A8F9-A418E061C63E}"/>
+    <workbookView xWindow="43080" yWindow="2160" windowWidth="25440" windowHeight="15270" firstSheet="16" activeTab="21" xr2:uid="{4ABCB470-47AD-4A8F-A8F9-A418E061C63E}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="41">
   <si>
     <t>DR1</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>DR Radio</t>
+  </si>
+  <si>
+    <t>* Ændret pga Ramasjang TRP</t>
   </si>
 </sst>
 </file>
@@ -7218,15 +7221,15 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F53B346-D6CA-9D4C-86C0-CCD3D74D1B59}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7261,7 +7264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -7270,16 +7273,20 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>100</v>
+        <f>50.7/4</f>
+        <v>12.675000000000001</v>
       </c>
       <c r="E2" s="2">
-        <v>100</v>
+        <f t="shared" ref="E2:G2" si="0">50.7/4</f>
+        <v>12.675000000000001</v>
       </c>
       <c r="F2" s="2">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>12.675000000000001</v>
       </c>
       <c r="G2" s="2">
-        <v>100</v>
+        <f t="shared" si="0"/>
+        <v>12.675000000000001</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -7292,7 +7299,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -7323,7 +7330,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7335,38 +7342,41 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:J4" si="0">D2*$K4/100</f>
+        <f t="shared" ref="D4:J4" si="1">D2*$K4/100</f>
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7378,38 +7388,38 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:J5" si="1">D2*$K5/100</f>
+        <f t="shared" ref="D5:J5" si="2">D2*$K5/100</f>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -7421,38 +7431,38 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
-        <v>100</v>
+        <f>D2*$K6/100</f>
+        <v>12.675000000000001</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" ref="E6:G6" si="3">E2*$K6/100</f>
+        <v>12.675000000000001</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>12.675000000000001</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>12.675000000000001</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D6:J6" si="4">H2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -7464,38 +7474,38 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:J8" si="3">D$3*$K7/100</f>
+        <f t="shared" ref="D7:J8" si="5">D$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -7507,38 +7517,38 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -7546,42 +7556,42 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
+        <f t="shared" ref="C9:J13" si="6">C$3*$K9/100</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -7589,42 +7599,42 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -7632,42 +7642,42 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -7675,42 +7685,42 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -7718,42 +7728,42 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -7786,7 +7796,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -7829,15 +7839,15 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0900FE42-DEF3-AD4D-8233-E77D6BFF956F}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7872,7 +7882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -7884,13 +7894,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>60</v>
+        <f>21/3</f>
+        <v>7</v>
       </c>
       <c r="F2" s="2">
-        <v>60</v>
+        <f t="shared" ref="F2:G2" si="0">21/3</f>
+        <v>7</v>
       </c>
       <c r="G2" s="2">
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -7903,7 +7916,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -7934,7 +7947,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7946,38 +7959,41 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:J4" si="0">D2*$K4/100</f>
+        <f t="shared" ref="D4:J4" si="1">D2*$K4/100</f>
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7989,38 +8005,38 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:J5" si="1">D2*$K5/100</f>
+        <f t="shared" ref="D5:J5" si="2">D2*$K5/100</f>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8032,38 +8048,38 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
+        <f t="shared" ref="D6:J6" si="3">D2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8075,38 +8091,38 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:J8" si="3">D$3*$K7/100</f>
+        <f t="shared" ref="D7:J8" si="4">D$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -8118,38 +8134,38 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8157,42 +8173,42 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
+        <f t="shared" ref="C9:J13" si="5">C$3*$K9/100</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -8200,42 +8216,42 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -8243,42 +8259,42 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -8286,42 +8302,42 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -8329,42 +8345,42 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -8397,7 +8413,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -8440,15 +8456,15 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320E5E6B-3822-3D48-AD5A-C084835E6C97}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -8483,7 +8499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -8514,7 +8530,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -8544,8 +8560,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8553,42 +8571,45 @@
         <v>0</v>
       </c>
       <c r="C4" s="1">
-        <f>C2*$K4/100</f>
-        <v>18.7</v>
+        <f>54*C2/450</f>
+        <v>20.399999999999999</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:J4" si="0">D2*$K4/100</f>
-        <v>18.7</v>
+        <f t="shared" ref="D4:E4" si="0">54*D2/450</f>
+        <v>20.399999999999999</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>12.1</v>
+        <v>13.2</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:J4" si="1">F2*$K4/100</f>
         <v>0</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8600,38 +8621,38 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:J5" si="1">D2*$K5/100</f>
+        <f t="shared" ref="D5:J5" si="2">D2*$K5/100</f>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8639,42 +8660,42 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <f>C2*$K6/100</f>
-        <v>151.30000000000001</v>
+        <f>66*C2/450</f>
+        <v>24.933333333333334</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
-        <v>151.30000000000001</v>
+        <f t="shared" ref="D6:E6" si="3">66*D2/450</f>
+        <v>24.933333333333334</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>97.9</v>
+        <f t="shared" si="3"/>
+        <v>16.133333333333333</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D6:J6" si="4">F2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8686,38 +8707,38 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:J8" si="3">D$3*$K7/100</f>
+        <f t="shared" ref="D7:J8" si="5">D$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -8729,38 +8750,38 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8768,42 +8789,42 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
+        <f t="shared" ref="C9:J13" si="6">C$3*$K9/100</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -8811,42 +8832,42 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -8854,42 +8875,42 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -8897,42 +8918,42 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -8940,42 +8961,42 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -9008,7 +9029,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -9051,15 +9072,15 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6FD59A-06A5-DE48-9C20-BF9F17ADA0DB}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -9094,7 +9115,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -9106,13 +9127,13 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -9125,7 +9146,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -9156,7 +9177,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9172,16 +9193,16 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
+        <f>36/3</f>
+        <v>12</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
+        <f t="shared" ref="F4:G4" si="1">36/3</f>
+        <v>12</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
@@ -9196,10 +9217,13 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9211,38 +9235,38 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:J5" si="1">D2*$K5/100</f>
+        <f t="shared" ref="D5:J5" si="2">D2*$K5/100</f>
         <v>0</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9254,38 +9278,38 @@
         <v>0</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
+        <f t="shared" ref="D6:J6" si="3">D2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="2"/>
-        <v>93.1</v>
+        <f>44/3</f>
+        <v>14.666666666666666</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="2"/>
-        <v>93.1</v>
+        <f t="shared" ref="F6:G6" si="4">44/3</f>
+        <v>14.666666666666666</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="2"/>
-        <v>93.1</v>
+        <f t="shared" si="4"/>
+        <v>14.666666666666666</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -9297,38 +9321,38 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:J8" si="3">D$3*$K7/100</f>
+        <f t="shared" ref="D7:J8" si="5">D$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9340,38 +9364,38 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9379,42 +9403,42 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
+        <f t="shared" ref="C9:J13" si="6">C$3*$K9/100</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -9422,42 +9446,42 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -9465,42 +9489,42 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -9508,42 +9532,42 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -9551,42 +9575,42 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -9619,7 +9643,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -15165,7 +15189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AA1E49-D152-4965-A7B7-E3C0F1662842}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>

--- a/data/data_inventory_consumption.xlsx
+++ b/data/data_inventory_consumption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3669516081e98610/Dokumenter/Uni/Speciale/Git/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiebach/Documents/11. semester/git/Speciale/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="185" documentId="13_ncr:1_{2AC5AAAA-F157-AA49-9BBB-8EF8A2ACBC8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8E38C89-9E94-4315-938A-FBC9B3A5FCFF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1D57E6-0D2A-A44C-9B9B-589E971BE80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="2160" windowWidth="25440" windowHeight="15270" firstSheet="16" activeTab="21" xr2:uid="{4ABCB470-47AD-4A8F-A8F9-A418E061C63E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="15740" windowHeight="16100" firstSheet="31" activeTab="37" xr2:uid="{4ABCB470-47AD-4A8F-A8F9-A418E061C63E}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,14 @@
     <sheet name="Priority 27" sheetId="5" r:id="rId29"/>
     <sheet name="Priority 28" sheetId="4" r:id="rId30"/>
     <sheet name="Priority 29" sheetId="14" r:id="rId31"/>
-    <sheet name="Priority 37" sheetId="33" r:id="rId32"/>
+    <sheet name="Priority 30" sheetId="34" r:id="rId32"/>
+    <sheet name="Priority 31" sheetId="35" r:id="rId33"/>
+    <sheet name="Priority 32" sheetId="36" r:id="rId34"/>
+    <sheet name="Priority 33" sheetId="37" r:id="rId35"/>
+    <sheet name="Priority 34" sheetId="38" r:id="rId36"/>
+    <sheet name="Priority 35" sheetId="39" r:id="rId37"/>
+    <sheet name="Priority 36" sheetId="40" r:id="rId38"/>
+    <sheet name="Priority 37" sheetId="33" r:id="rId39"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="41">
   <si>
     <t>DR1</t>
   </si>
@@ -255,12 +262,13 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -583,9 +591,9 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -593,7 +601,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -601,7 +609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -609,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -617,7 +625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -625,7 +633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -633,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -641,7 +649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -649,7 +657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -657,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -665,7 +673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -673,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -681,7 +689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -703,9 +711,9 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -740,7 +748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -771,7 +779,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -802,7 +810,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -845,7 +853,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -888,7 +896,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -931,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -974,7 +982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1017,7 +1025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1060,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1103,7 +1111,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1146,7 +1154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1189,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1232,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1265,7 +1273,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1314,9 +1322,9 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1351,7 +1359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -1382,7 +1390,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -1413,7 +1421,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1456,7 +1464,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1499,7 +1507,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1542,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1585,7 +1593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1628,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1671,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1714,7 +1722,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1757,7 +1765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1800,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1843,7 +1851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1876,7 +1884,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1925,9 +1933,9 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1962,7 +1970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -1993,7 +2001,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -2024,7 +2032,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2067,7 +2075,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2110,7 +2118,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2153,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2196,7 +2204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2239,7 +2247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2282,7 +2290,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2325,7 +2333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2368,7 +2376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2411,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2454,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2487,7 +2495,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2536,9 +2544,9 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2573,7 +2581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -2604,7 +2612,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -2635,7 +2643,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2678,7 +2686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2721,7 +2729,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2764,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2807,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2850,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2893,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2936,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2979,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3022,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3065,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3098,7 +3106,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3147,9 +3155,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3184,7 +3192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -3215,7 +3223,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -3246,7 +3254,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3289,7 +3297,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3332,7 +3340,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3375,7 +3383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3418,7 +3426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3461,7 +3469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3504,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3547,7 +3555,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3590,7 +3598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3633,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3676,7 +3684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3709,7 +3717,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3758,9 +3766,9 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -3795,7 +3803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -3826,7 +3834,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -3857,7 +3865,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3900,7 +3908,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3943,7 +3951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3986,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4029,7 +4037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4072,7 +4080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4115,7 +4123,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4158,7 +4166,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4201,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4244,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4287,7 +4295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -4320,7 +4328,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4369,9 +4377,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -4406,7 +4414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -4423,7 +4431,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -4440,7 +4448,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4481,7 +4489,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4522,7 +4530,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4563,7 +4571,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4604,7 +4612,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4645,7 +4653,7 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4686,7 +4694,7 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4727,7 +4735,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4768,7 +4776,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4809,7 +4817,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4850,7 +4858,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -4883,7 +4891,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4932,9 +4940,9 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -4969,7 +4977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -5000,7 +5008,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -5031,7 +5039,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5074,7 +5082,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5117,7 +5125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5158,7 +5166,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5199,7 +5207,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5240,7 +5248,7 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5283,7 +5291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -5326,7 +5334,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -5367,7 +5375,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -5410,7 +5418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -5451,7 +5459,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -5484,7 +5492,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -5533,9 +5541,9 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -5570,7 +5578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -5601,7 +5609,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -5632,7 +5640,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5675,7 +5683,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5718,7 +5726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5761,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5804,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5847,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5890,7 +5898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -5933,7 +5941,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -5976,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -6019,7 +6027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -6062,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -6095,7 +6103,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -6144,12 +6152,12 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -6184,7 +6192,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -6215,7 +6223,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -6246,7 +6254,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6289,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -6332,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -6375,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -6418,7 +6426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -6461,7 +6469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -6504,7 +6512,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -6547,7 +6555,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -6590,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -6633,7 +6641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -6676,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -6709,7 +6717,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -6758,15 +6766,15 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.796875" style="3"/>
+    <col min="3" max="3" width="22.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -6783,7 +6791,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6800,7 +6808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -6817,7 +6825,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6834,7 +6842,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -6851,7 +6859,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -6862,7 +6870,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -6873,7 +6881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -6884,7 +6892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -6895,7 +6903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -6906,7 +6914,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -6917,7 +6925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -6928,7 +6936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -6939,7 +6947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -6950,7 +6958,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -6961,7 +6969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -6972,7 +6980,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -6983,7 +6991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -6994,7 +7002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -7005,7 +7013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -7016,7 +7024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -7027,7 +7035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -7038,7 +7046,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -7049,7 +7057,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -7060,7 +7068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -7071,7 +7079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -7082,7 +7090,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -7093,7 +7101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -7104,7 +7112,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -7115,7 +7123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -7126,7 +7134,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -7137,7 +7145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -7148,7 +7156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -7159,7 +7167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -7170,7 +7178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -7181,7 +7189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -7192,7 +7200,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -7203,7 +7211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -7227,9 +7235,9 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7264,7 +7272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -7299,7 +7307,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -7330,7 +7338,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7376,7 +7384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7419,7 +7427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -7447,7 +7455,7 @@
         <v>12.675000000000001</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ref="D6:J6" si="4">H2*$K6/100</f>
+        <f t="shared" ref="H6:J6" si="4">H2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -7462,7 +7470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -7505,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -7548,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -7591,7 +7599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -7634,7 +7642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -7677,7 +7685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -7720,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -7763,7 +7771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -7796,7 +7804,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -7845,9 +7853,9 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7882,7 +7890,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -7916,7 +7924,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -7947,7 +7955,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7993,7 +8001,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8036,7 +8044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8079,7 +8087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8122,7 +8130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -8165,7 +8173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8208,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -8251,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -8294,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -8337,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -8380,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -8413,7 +8421,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -8458,13 +8466,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320E5E6B-3822-3D48-AD5A-C084835E6C97}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -8499,7 +8507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -8530,7 +8538,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -8560,10 +8568,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8583,7 +8591,7 @@
         <v>13.2</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="D4:J4" si="1">F2*$K4/100</f>
+        <f t="shared" ref="F4:J4" si="1">F2*$K4/100</f>
         <v>0</v>
       </c>
       <c r="G4" s="1">
@@ -8609,7 +8617,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8652,7 +8660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8672,7 +8680,7 @@
         <v>16.133333333333333</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" ref="D6:J6" si="4">F2*$K6/100</f>
+        <f t="shared" ref="F6:J6" si="4">F2*$K6/100</f>
         <v>0</v>
       </c>
       <c r="G6" s="1">
@@ -8695,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8738,7 +8746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -8781,7 +8789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8824,7 +8832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -8867,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -8910,7 +8918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -8953,7 +8961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -8996,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -9029,7 +9037,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -9078,9 +9086,9 @@
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -9115,7 +9123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -9146,7 +9154,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -9177,7 +9185,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9223,7 +9231,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9266,7 +9274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9309,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -9352,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9395,7 +9403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9438,7 +9446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -9481,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -9524,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -9567,7 +9575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -9610,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -9643,7 +9651,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -9692,9 +9700,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -9729,7 +9737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -9760,7 +9768,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -9791,7 +9799,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9834,7 +9842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9877,7 +9885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9920,7 +9928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -9963,7 +9971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -10006,7 +10014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -10049,7 +10057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -10092,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -10135,7 +10143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -10178,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -10221,7 +10229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -10254,7 +10262,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -10303,9 +10311,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -10340,7 +10348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -10371,7 +10379,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -10402,7 +10410,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10445,7 +10453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -10488,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -10531,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -10574,7 +10582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -10617,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -10660,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -10703,7 +10711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -10746,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -10789,7 +10797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -10832,7 +10840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -10865,7 +10873,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -10914,9 +10922,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -10951,7 +10959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -10982,7 +10990,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -11013,7 +11021,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -11056,7 +11064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -11099,7 +11107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -11142,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -11185,7 +11193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -11228,7 +11236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -11271,7 +11279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -11314,7 +11322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -11357,7 +11365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -11400,7 +11408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -11443,7 +11451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -11476,7 +11484,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -11525,9 +11533,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -11562,7 +11570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -11593,7 +11601,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -11624,7 +11632,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -11667,7 +11675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -11710,7 +11718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -11753,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -11796,7 +11804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -11839,7 +11847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -11882,7 +11890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -11925,7 +11933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -11968,7 +11976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -12011,7 +12019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -12054,7 +12062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -12087,7 +12095,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -12136,9 +12144,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -12173,7 +12181,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -12204,7 +12212,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -12235,7 +12243,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -12278,7 +12286,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -12321,7 +12329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -12364,7 +12372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -12407,7 +12415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -12450,7 +12458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -12493,7 +12501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -12536,7 +12544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -12579,7 +12587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -12622,7 +12630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -12665,7 +12673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -12698,7 +12706,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -12744,9 +12752,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -12781,7 +12789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -12812,7 +12820,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -12843,7 +12851,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -12886,7 +12894,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -12929,7 +12937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -12972,7 +12980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -13015,7 +13023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -13058,7 +13066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -13101,7 +13109,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -13144,7 +13152,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -13187,7 +13195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -13230,7 +13238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -13273,7 +13281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -13306,7 +13314,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -13355,14 +13363,14 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13397,7 +13405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -13428,7 +13436,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -13459,7 +13467,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -13502,7 +13510,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -13545,7 +13553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -13588,7 +13596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -13631,7 +13639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -13674,7 +13682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -13717,7 +13725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -13760,7 +13768,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -13803,7 +13811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -13846,7 +13854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -13889,7 +13897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -13922,7 +13930,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -13968,9 +13976,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -14005,7 +14013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -14036,7 +14044,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -14067,7 +14075,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -14110,7 +14118,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -14153,7 +14161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -14196,7 +14204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -14239,7 +14247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -14282,7 +14290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -14325,7 +14333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -14368,7 +14376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -14411,7 +14419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -14454,7 +14462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -14497,7 +14505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -14530,7 +14538,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -14579,12 +14587,12 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -14619,7 +14627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -14650,7 +14658,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -14681,7 +14689,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -14724,7 +14732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -14767,7 +14775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -14810,7 +14818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -14853,7 +14861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -14896,7 +14904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -14939,7 +14947,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -14982,7 +14990,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -15025,7 +15033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -15068,7 +15076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -15111,7 +15119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -15144,7 +15152,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -15186,6 +15194,4325 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49AB770-5189-3941-9A89-B3744ED77B59}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1">
+        <v>-2</v>
+      </c>
+      <c r="D1">
+        <v>-1</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:J4" si="0">D2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:J5" si="1">D2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <f>C2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>C$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:J8" si="3">D$3*$K7/100</f>
+        <v>5.95</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>5.95</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>C$3*$K8/100</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>0.35</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <f>4000000*2000000/(2000000+1800000)</f>
+        <v>2105263.1578947366</v>
+      </c>
+      <c r="E14" s="2">
+        <f>4000000*1800000/(2000000+1800000)</f>
+        <v>1894736.8421052631</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <f>SUM(K7:K13)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17E34921-A054-2F4D-B972-1261AF67A934}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1">
+        <v>-2</v>
+      </c>
+      <c r="D1">
+        <v>-1</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:J4" si="0">D2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:J5" si="1">D2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <f>C2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>C$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:J8" si="3">D$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>C$3*$K8/100</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <f>SUM(K7:K13)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CC0F54-3CE4-A84E-8B66-561B22F68AD0}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1">
+        <v>-2</v>
+      </c>
+      <c r="D1">
+        <v>-1</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <f>80*70/(70+50+50)</f>
+        <v>32.941176470588232</v>
+      </c>
+      <c r="E3" s="2">
+        <f>80*50/(70+50+50)</f>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="F3" s="2">
+        <f>80*50/(70+50+50)</f>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:J4" si="0">D2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:J5" si="1">D2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <f>C2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>C$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:J8" si="3">D$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>C$3*$K8/100</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>32.941176470588232</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>23.529411764705884</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <f>1500000*1000000/(1000000+800000)</f>
+        <v>833333.33333333337</v>
+      </c>
+      <c r="F14" s="2">
+        <f>1500000*800000/(1000000+800000)</f>
+        <v>666666.66666666663</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <f>SUM(K7:K13)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8518CE0-6180-F143-BEB3-BC74196B4EE3}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1">
+        <v>-2</v>
+      </c>
+      <c r="D1">
+        <v>-1</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <f>140*90/(90+70)</f>
+        <v>78.75</v>
+      </c>
+      <c r="E3" s="2">
+        <f>140*70/(90+70)</f>
+        <v>61.25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:J4" si="0">D2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:J5" si="1">D2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <f>C2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>C$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:J8" si="3">D$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>C$3*$K8/100</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>78.75</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="4"/>
+        <v>61.25</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <f>4000000/2</f>
+        <v>2000000</v>
+      </c>
+      <c r="E14" s="2">
+        <f>4000000/2</f>
+        <v>2000000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <f>SUM(K7:K13)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA53CE0-9D55-BC44-88C4-E69ACF70815C}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1">
+        <v>-2</v>
+      </c>
+      <c r="D1">
+        <v>-1</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <f>7*8/(8+7)</f>
+        <v>3.7333333333333334</v>
+      </c>
+      <c r="F3" s="2">
+        <f>7*7/(8+7)</f>
+        <v>3.2666666666666666</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:J4" si="0">D2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:J5" si="1">D2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <f>C2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>C$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:J8" si="3">D$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>E$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>F$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>G$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>C$3*$K8/100</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>E$3*$K8/100</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>F$3*$K8/100</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>G$3*$K8/100</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>E$3*$K9/100</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>F$3*$K9/100</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>G$3*$K9/100</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>E$3*$K10/100</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>F$3*$K10/100</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>G$3*$K10/100</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>E$3*$K11/100</f>
+        <v>3.7333333333333329</v>
+      </c>
+      <c r="F11">
+        <f>F$3*$K11/100</f>
+        <v>3.2666666666666671</v>
+      </c>
+      <c r="G11">
+        <f>G$3*$K11/100</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>E$3*$K12/100</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>F$3*$K12/100</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>G$3*$K12/100</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>E$3*$K13/100</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>F$3*$K13/100</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>G$3*$K13/100</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <f>SUM(K7:K13)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5695E1-33F4-F644-9E77-F942FEB42DED}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1">
+        <v>-2</v>
+      </c>
+      <c r="D1">
+        <v>-1</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <f>47*40/(40+35)</f>
+        <v>25.066666666666666</v>
+      </c>
+      <c r="F3" s="2">
+        <f>47*35/(40+35)</f>
+        <v>21.933333333333334</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:J4" si="0">D2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:J5" si="1">D2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <f>C2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>C$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:J8" si="3">D$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>E$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>F$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>G$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>C$3*$K8/100</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>E$3*$K8/100</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>F$3*$K8/100</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>G$3*$K8/100</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>E$3*$K9/100</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>F$3*$K9/100</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>G$3*$K9/100</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>E$3*$K10/100</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>F$3*$K10/100</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>G$3*$K10/100</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>E$3*$K11/100</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>F$3*$K11/100</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>G$3*$K11/100</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>E$3*$K12/100</f>
+        <v>25.066666666666666</v>
+      </c>
+      <c r="F12">
+        <f>F$3*$K12/100</f>
+        <v>21.933333333333334</v>
+      </c>
+      <c r="G12">
+        <f>G$3*$K12/100</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>E$3*$K13/100</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>F$3*$K13/100</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>G$3*$K13/100</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <f>3000000/2</f>
+        <v>1500000</v>
+      </c>
+      <c r="F14" s="2">
+        <f>3000000/2</f>
+        <v>1500000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <f>SUM(K7:K13)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4230A54-92C9-3743-85A5-076A9F589A86}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1">
+        <v>-2</v>
+      </c>
+      <c r="D1">
+        <v>-1</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <f>4/2</f>
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <f>4/2</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f>C2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:J4" si="0">D2*$K4/100</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:J5" si="1">D2*$K5/100</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <f>C2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:J6" si="2">D2*$K6/100</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>C$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:J8" si="3">D$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>E$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>F$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>G$3*$K7/100</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <f>C$3*$K8/100</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>E$3*$K8/100</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>F$3*$K8/100</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>G$3*$K8/100</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>E$3*$K9/100</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>F$3*$K9/100</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>G$3*$K9/100</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>E$3*$K10/100</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>F$3*$K10/100</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>G$3*$K10/100</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>E$3*$K11/100</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>F$3*$K11/100</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>G$3*$K11/100</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>E$3*$K12/100</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>F$3*$K12/100</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>G$3*$K12/100</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>E$3*$K13/100</f>
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <f>F$3*$K13/100</f>
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <f>G$3*$K13/100</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <f>4000000/2</f>
+        <v>2000000</v>
+      </c>
+      <c r="F14" s="2">
+        <f>4000000/2</f>
+        <v>2000000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <f>SUM(K7:K13)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05AA1E49-D152-4965-A7B7-E3C0F1662842}">
   <dimension ref="A1:K15"/>
   <sheetViews>
@@ -15193,12 +19520,12 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -15233,7 +19560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -15264,7 +19591,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -15291,7 +19618,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -15331,7 +19658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -15371,7 +19698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -15414,7 +19741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -15454,7 +19781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -15494,7 +19821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -15531,7 +19858,7 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -15569,7 +19896,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -15609,7 +19936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -15647,7 +19974,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -15687,7 +20014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -15720,7 +20047,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -15769,9 +20096,9 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15806,7 +20133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -15837,7 +20164,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -15868,7 +20195,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -15911,7 +20238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -15954,7 +20281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -15997,7 +20324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -16040,7 +20367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -16083,7 +20410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -16126,7 +20453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -16169,7 +20496,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -16212,7 +20539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -16255,7 +20582,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -16298,7 +20625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -16331,7 +20658,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -16380,12 +20707,12 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.73046875" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16420,7 +20747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -16451,7 +20778,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -16482,7 +20809,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -16525,7 +20852,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -16568,7 +20895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -16611,7 +20938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -16654,7 +20981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -16697,7 +21024,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -16740,7 +21067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -16783,7 +21110,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -16826,7 +21153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -16869,7 +21196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -16912,7 +21239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -16945,7 +21272,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -16994,12 +21321,12 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17034,7 +21361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -17065,7 +21392,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -17096,7 +21423,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -17139,7 +21466,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -17182,7 +21509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -17225,7 +21552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -17268,7 +21595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -17311,7 +21638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -17354,7 +21681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -17397,7 +21724,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -17440,7 +21767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -17483,7 +21810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -17526,7 +21853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -17559,7 +21886,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -17608,9 +21935,9 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17645,7 +21972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -17676,7 +22003,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -17707,7 +22034,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -17750,7 +22077,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -17793,7 +22120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -17836,7 +22163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -17879,7 +22206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -17922,7 +22249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -17965,7 +22292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -18008,7 +22335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -18051,7 +22378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -18094,7 +22421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -18137,7 +22464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -18170,7 +22497,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -18219,9 +22546,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18256,7 +22583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -18287,7 +22614,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -18318,7 +22645,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -18361,7 +22688,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -18404,7 +22731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -18447,7 +22774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -18490,7 +22817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -18533,7 +22860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -18576,7 +22903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -18619,7 +22946,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -18662,7 +22989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -18705,7 +23032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -18748,7 +23075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -18781,7 +23108,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -18830,12 +23157,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18870,7 +23197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -18901,7 +23228,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -18932,7 +23259,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -18975,7 +23302,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -19018,7 +23345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -19061,7 +23388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -19104,7 +23431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -19147,7 +23474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -19190,7 +23517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -19233,7 +23560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -19276,7 +23603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -19319,7 +23646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -19362,7 +23689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -19395,7 +23722,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>

--- a/data/data_inventory_consumption.xlsx
+++ b/data/data_inventory_consumption.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiebach/Documents/11. semester/git/Speciale/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1D57E6-0D2A-A44C-9B9B-589E971BE80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5F711A-D55B-F040-99BA-43A72A2DE0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15740" windowHeight="16100" firstSheet="31" activeTab="37" xr2:uid="{4ABCB470-47AD-4A8F-A8F9-A418E061C63E}"/>
+    <workbookView xWindow="-36700" yWindow="-1100" windowWidth="15740" windowHeight="16100" firstSheet="31" activeTab="36" xr2:uid="{4ABCB470-47AD-4A8F-A8F9-A418E061C63E}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="42">
   <si>
     <t>DR1</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>* Ændret pga Ramasjang TRP</t>
+  </si>
+  <si>
+    <t>NOTE: 6 har vi selv fundet på</t>
   </si>
 </sst>
 </file>
@@ -15814,7 +15817,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17917,15 +17920,15 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f>E$3*$K7/100</f>
+        <f t="shared" ref="E7:G13" si="4">E$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>F$3*$K7/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>G$3*$K7/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H7">
@@ -17960,15 +17963,15 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f>E$3*$K8/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>F$3*$K8/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>G$3*$K8/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H8">
@@ -17995,35 +17998,35 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
+        <f t="shared" ref="C9:J13" si="5">C$3*$K9/100</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>E$3*$K9/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>F$3*$K9/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>G$3*$K9/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
@@ -18038,35 +18041,35 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>E$3*$K10/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>F$3*$K10/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>G$3*$K10/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
@@ -18081,35 +18084,35 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>E$3*$K11/100</f>
+        <f t="shared" si="4"/>
         <v>3.7333333333333329</v>
       </c>
       <c r="F11">
-        <f>F$3*$K11/100</f>
+        <f t="shared" si="4"/>
         <v>3.2666666666666671</v>
       </c>
       <c r="G11">
-        <f>G$3*$K11/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
@@ -18124,35 +18127,35 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>E$3*$K12/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>F$3*$K12/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>G$3*$K12/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
@@ -18167,35 +18170,35 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>E$3*$K13/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>F$3*$K13/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>G$3*$K13/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
@@ -18278,10 +18281,10 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5695E1-33F4-F644-9E77-F942FEB42DED}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18289,7 +18292,7 @@
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -18324,7 +18327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -18355,7 +18358,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -18367,12 +18370,12 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <f>47*40/(40+35)</f>
-        <v>25.066666666666666</v>
+        <f>6*40/(40+35)</f>
+        <v>3.2</v>
       </c>
       <c r="F3" s="2">
-        <f>47*35/(40+35)</f>
-        <v>21.933333333333334</v>
+        <f>6*35/(40+35)</f>
+        <v>2.8</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -18387,8 +18390,11 @@
         <v>0</v>
       </c>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -18431,7 +18437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -18474,7 +18480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -18517,7 +18523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -18533,15 +18539,15 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f>E$3*$K7/100</f>
+        <f t="shared" ref="E7:G13" si="4">E$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>F$3*$K7/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>G$3*$K7/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H7">
@@ -18560,7 +18566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -18576,15 +18582,15 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f>E$3*$K8/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>F$3*$K8/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>G$3*$K8/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H8">
@@ -18603,7 +18609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -18611,42 +18617,42 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
+        <f t="shared" ref="C9:J13" si="5">C$3*$K9/100</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>E$3*$K9/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>F$3*$K9/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>G$3*$K9/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -18654,42 +18660,42 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>E$3*$K10/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>F$3*$K10/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>G$3*$K10/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -18697,42 +18703,42 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>E$3*$K11/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>F$3*$K11/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>G$3*$K11/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -18740,42 +18746,42 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>E$3*$K12/100</f>
-        <v>25.066666666666666</v>
+        <f t="shared" si="4"/>
+        <v>3.2</v>
       </c>
       <c r="F12">
-        <f>F$3*$K12/100</f>
-        <v>21.933333333333334</v>
+        <f t="shared" si="4"/>
+        <v>2.8</v>
       </c>
       <c r="G12">
-        <f>G$3*$K12/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -18783,42 +18789,42 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>E$3*$K13/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F13">
-        <f>F$3*$K13/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G13">
-        <f>G$3*$K13/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -18853,7 +18859,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -18898,8 +18904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4230A54-92C9-3743-85A5-076A9F589A86}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19151,15 +19157,15 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <f>E$3*$K7/100</f>
+        <f t="shared" ref="E7:G13" si="4">E$3*$K7/100</f>
         <v>0</v>
       </c>
       <c r="F7">
-        <f>F$3*$K7/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G7">
-        <f>G$3*$K7/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H7">
@@ -19194,15 +19200,15 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f>E$3*$K8/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>F$3*$K8/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G8">
-        <f>G$3*$K8/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H8">
@@ -19229,35 +19235,35 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:J13" si="4">C$3*$K9/100</f>
+        <f t="shared" ref="C9:J13" si="5">C$3*$K9/100</f>
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f>E$3*$K9/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F9">
-        <f>F$3*$K9/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G9">
-        <f>G$3*$K9/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
@@ -19272,35 +19278,35 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>E$3*$K10/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>F$3*$K10/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f>G$3*$K10/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
@@ -19315,35 +19321,35 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f>E$3*$K11/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>F$3*$K11/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G11">
-        <f>G$3*$K11/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
@@ -19358,35 +19364,35 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f>E$3*$K12/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F12">
-        <f>F$3*$K12/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G12">
-        <f>G$3*$K12/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
@@ -19401,35 +19407,35 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f>E$3*$K13/100</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F13">
-        <f>F$3*$K13/100</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G13">
-        <f>G$3*$K13/100</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">

--- a/data/data_inventory_consumption.xlsx
+++ b/data/data_inventory_consumption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiebach/Documents/11. semester/git/Speciale/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5F711A-D55B-F040-99BA-43A72A2DE0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78135100-632A-484A-9219-FE08FEDA2B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36700" yWindow="-1100" windowWidth="15740" windowHeight="16100" firstSheet="31" activeTab="36" xr2:uid="{4ABCB470-47AD-4A8F-A8F9-A418E061C63E}"/>
+    <workbookView xWindow="-38400" yWindow="-3100" windowWidth="38400" windowHeight="21100" xr2:uid="{4ABCB470-47AD-4A8F-A8F9-A418E061C63E}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6ED9437-A94C-4FE0-A76B-19849264CDD7}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -689,7 +689,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -7235,7 +7235,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7853,7 +7853,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8470,7 +8470,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9086,7 +9086,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18283,7 +18283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5695E1-33F4-F644-9E77-F942FEB42DED}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>

--- a/data/data_inventory_consumption.xlsx
+++ b/data/data_inventory_consumption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiebach/Documents/11. semester/git/Speciale/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3669516081e98610/Dokumenter/Uni/Speciale/Git/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78135100-632A-484A-9219-FE08FEDA2B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{78135100-632A-484A-9219-FE08FEDA2B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{269B2354-3F58-4129-8521-F382F3055431}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3100" windowWidth="38400" windowHeight="21100" xr2:uid="{4ABCB470-47AD-4A8F-A8F9-A418E061C63E}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{4ABCB470-47AD-4A8F-A8F9-A418E061C63E}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="43">
   <si>
     <t>DR1</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>NOTE: 6 har vi selv fundet på</t>
+  </si>
+  <si>
+    <t>Digital</t>
   </si>
 </sst>
 </file>
@@ -591,12 +594,12 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -604,7 +607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -612,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -620,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -628,7 +631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -636,7 +639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -644,7 +647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -652,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -660,7 +663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -668,7 +671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -676,7 +679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -684,15 +687,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -714,9 +717,9 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -751,7 +754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -782,7 +785,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -813,7 +816,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -856,7 +859,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -899,7 +902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -942,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -985,7 +988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1028,7 +1031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1157,7 +1160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1243,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1276,7 +1279,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1325,9 +1328,9 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -1393,7 +1396,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -1424,7 +1427,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1467,7 +1470,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1510,7 +1513,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1553,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1596,7 +1599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1639,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1682,7 +1685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1725,7 +1728,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1768,7 +1771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1887,7 +1890,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1936,9 +1939,9 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -2004,7 +2007,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -2035,7 +2038,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2078,7 +2081,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2121,7 +2124,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2164,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2207,7 +2210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2250,7 +2253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2379,7 +2382,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2498,7 +2501,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2547,9 +2550,9 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2584,7 +2587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -2615,7 +2618,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -2646,7 +2649,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2689,7 +2692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2732,7 +2735,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2775,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2818,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2861,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2904,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2947,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3033,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3076,7 +3079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3109,7 +3112,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3158,9 +3161,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3195,7 +3198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -3226,7 +3229,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -3257,7 +3260,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3300,7 +3303,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3343,7 +3346,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3386,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -3429,7 +3432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -3472,7 +3475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -3515,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3558,7 +3561,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -3601,7 +3604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -3644,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -3687,7 +3690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -3720,7 +3723,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -3769,9 +3772,9 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -3806,7 +3809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -3837,7 +3840,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -3868,7 +3871,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3911,7 +3914,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3954,7 +3957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3997,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4040,7 +4043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4083,7 +4086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4126,7 +4129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4169,7 +4172,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4212,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4255,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4298,7 +4301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -4331,7 +4334,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4380,9 +4383,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -4417,7 +4420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -4434,7 +4437,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -4451,7 +4454,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4492,7 +4495,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4533,7 +4536,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4574,7 +4577,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4615,7 +4618,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4656,7 +4659,7 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4697,7 +4700,7 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4738,7 +4741,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4779,7 +4782,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4820,7 +4823,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4861,7 +4864,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -4894,7 +4897,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4943,9 +4946,9 @@
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -4980,7 +4983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -5011,7 +5014,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -5042,7 +5045,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5085,7 +5088,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5128,7 +5131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5169,7 +5172,7 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5210,7 +5213,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5251,7 +5254,7 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5294,7 +5297,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -5337,7 +5340,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -5378,7 +5381,7 @@
       </c>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -5421,7 +5424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -5462,7 +5465,7 @@
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -5495,7 +5498,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -5544,9 +5547,9 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -5581,7 +5584,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -5612,7 +5615,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -5643,7 +5646,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5686,7 +5689,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5729,7 +5732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5772,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5815,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5858,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5901,7 +5904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -5944,7 +5947,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -5987,7 +5990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -6030,7 +6033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -6073,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -6106,7 +6109,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -6155,12 +6158,12 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -6195,7 +6198,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -6226,7 +6229,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -6257,7 +6260,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6300,7 +6303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -6343,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -6386,7 +6389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -6429,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -6472,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -6515,7 +6518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -6558,7 +6561,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -6601,7 +6604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -6644,7 +6647,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -6687,7 +6690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -6720,7 +6723,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -6769,15 +6772,15 @@
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.796875" style="3"/>
     <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="22.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -6794,7 +6797,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6811,7 +6814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -6828,7 +6831,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -6845,7 +6848,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -6862,7 +6865,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -6873,7 +6876,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -6884,7 +6887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -6895,7 +6898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -6906,7 +6909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -6917,7 +6920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -6928,7 +6931,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -6939,7 +6942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -6950,7 +6953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -6961,7 +6964,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -6972,7 +6975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -6983,7 +6986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -6994,7 +6997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -7005,7 +7008,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -7016,7 +7019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -7027,7 +7030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -7038,7 +7041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -7049,7 +7052,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -7060,7 +7063,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -7071,7 +7074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -7082,7 +7085,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -7093,7 +7096,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -7104,7 +7107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -7115,7 +7118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -7126,7 +7129,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -7137,7 +7140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -7148,7 +7151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -7159,7 +7162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -7170,7 +7173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -7181,7 +7184,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -7192,7 +7195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -7203,7 +7206,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -7214,7 +7217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -7238,9 +7241,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7275,7 +7278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -7310,7 +7313,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -7341,7 +7344,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -7387,7 +7390,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7430,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -7473,7 +7476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -7516,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -7559,7 +7562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -7602,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -7645,7 +7648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -7688,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -7731,7 +7734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -7774,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -7807,7 +7810,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -7856,9 +7859,9 @@
       <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -7893,7 +7896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -7927,7 +7930,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -7958,7 +7961,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8004,7 +8007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8047,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8090,7 +8093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8133,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -8176,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8219,7 +8222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -8262,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -8305,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -8348,7 +8351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -8391,7 +8394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -8424,7 +8427,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -8473,9 +8476,9 @@
       <selection activeCell="U26" sqref="U26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -8510,7 +8513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -8541,7 +8544,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -8574,7 +8577,7 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -8620,7 +8623,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8663,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -8706,7 +8709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -8749,7 +8752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -8792,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -8835,7 +8838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -8878,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -8921,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -8964,7 +8967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -9007,7 +9010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -9040,7 +9043,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -9089,9 +9092,9 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -9126,7 +9129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -9157,7 +9160,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -9188,7 +9191,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9234,7 +9237,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9277,7 +9280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9320,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -9363,7 +9366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -9406,7 +9409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -9449,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -9492,7 +9495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -9535,7 +9538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -9578,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -9621,7 +9624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -9654,7 +9657,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -9703,9 +9706,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -9740,7 +9743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -9771,7 +9774,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -9802,7 +9805,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -9845,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9888,7 +9891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -9931,7 +9934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -9974,7 +9977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -10017,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -10060,7 +10063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -10103,7 +10106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -10146,7 +10149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -10189,7 +10192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -10232,7 +10235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -10265,7 +10268,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -10314,9 +10317,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -10351,7 +10354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -10382,7 +10385,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -10413,7 +10416,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -10456,7 +10459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -10499,7 +10502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -10542,7 +10545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -10585,7 +10588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -10628,7 +10631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -10671,7 +10674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -10714,7 +10717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -10757,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -10800,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -10843,7 +10846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -10876,7 +10879,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -10925,9 +10928,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -10962,7 +10965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -10993,7 +10996,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -11024,7 +11027,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -11067,7 +11070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -11110,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -11153,7 +11156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -11196,7 +11199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -11239,7 +11242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -11282,7 +11285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -11325,7 +11328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -11368,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -11411,7 +11414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -11454,7 +11457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -11487,7 +11490,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -11536,9 +11539,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -11573,7 +11576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -11604,7 +11607,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -11635,7 +11638,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -11678,7 +11681,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -11721,7 +11724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -11764,7 +11767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -11807,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -11850,7 +11853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -11893,7 +11896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -11936,7 +11939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -11979,7 +11982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -12022,7 +12025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -12065,7 +12068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -12098,7 +12101,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -12147,9 +12150,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -12184,7 +12187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -12215,7 +12218,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -12246,7 +12249,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -12289,7 +12292,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -12332,7 +12335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -12375,7 +12378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -12418,7 +12421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -12461,7 +12464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -12504,7 +12507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -12547,7 +12550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -12590,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -12633,7 +12636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -12676,7 +12679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -12709,7 +12712,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -12755,9 +12758,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -12792,7 +12795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -12823,7 +12826,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -12854,7 +12857,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -12897,7 +12900,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -12940,7 +12943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -12983,7 +12986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -13026,7 +13029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -13069,7 +13072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -13112,7 +13115,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -13155,7 +13158,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -13198,7 +13201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -13241,7 +13244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -13284,7 +13287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -13317,7 +13320,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -13366,14 +13369,14 @@
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13408,7 +13411,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -13439,7 +13442,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -13470,7 +13473,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -13513,7 +13516,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -13556,7 +13559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -13599,7 +13602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -13642,7 +13645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -13685,7 +13688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -13728,7 +13731,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -13771,7 +13774,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -13814,7 +13817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -13857,7 +13860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -13900,7 +13903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -13933,7 +13936,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -13979,9 +13982,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -14016,7 +14019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -14047,7 +14050,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -14078,7 +14081,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -14121,7 +14124,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -14164,7 +14167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -14207,7 +14210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -14250,7 +14253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -14293,7 +14296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -14336,7 +14339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -14379,7 +14382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -14422,7 +14425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -14465,7 +14468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -14508,7 +14511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -14541,7 +14544,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -14590,12 +14593,12 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -14630,7 +14633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -14661,7 +14664,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -14692,7 +14695,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -14735,7 +14738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -14778,7 +14781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -14821,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -14864,7 +14867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -14907,7 +14910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -14950,7 +14953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -14993,7 +14996,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -15036,7 +15039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -15079,7 +15082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -15122,7 +15125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -15155,7 +15158,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -15204,12 +15207,12 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -15244,7 +15247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -15275,7 +15278,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -15306,7 +15309,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -15349,7 +15352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -15392,7 +15395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -15435,7 +15438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -15478,7 +15481,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -15521,7 +15524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -15564,7 +15567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -15607,7 +15610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -15650,7 +15653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -15693,7 +15696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -15736,7 +15739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -15771,7 +15774,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -15820,12 +15823,12 @@
       <selection activeCell="E3" sqref="E3:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -15860,7 +15863,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -15891,7 +15894,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -15922,7 +15925,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -15965,7 +15968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -16008,7 +16011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -16051,7 +16054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -16094,7 +16097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -16137,7 +16140,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -16180,7 +16183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -16223,7 +16226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -16266,7 +16269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -16309,7 +16312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -16352,7 +16355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -16385,7 +16388,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -16434,12 +16437,12 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -16474,7 +16477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -16505,7 +16508,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -16539,7 +16542,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -16582,7 +16585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -16625,7 +16628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -16668,7 +16671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -16711,7 +16714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -16754,7 +16757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -16797,7 +16800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -16840,7 +16843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -16883,7 +16886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -16926,7 +16929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -16969,7 +16972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -17004,7 +17007,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -17053,12 +17056,12 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -17093,7 +17096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -17124,7 +17127,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -17157,7 +17160,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -17200,7 +17203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -17243,7 +17246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -17286,7 +17289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -17329,7 +17332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -17372,7 +17375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -17415,7 +17418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -17458,7 +17461,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -17501,7 +17504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -17544,7 +17547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -17587,7 +17590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -17622,7 +17625,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -17671,12 +17674,12 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -17711,7 +17714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -17742,7 +17745,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -17775,7 +17778,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -17818,7 +17821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -17861,7 +17864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -17904,7 +17907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -17947,7 +17950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -17990,7 +17993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -18033,7 +18036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -18076,7 +18079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -18119,7 +18122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -18162,7 +18165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -18205,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -18238,7 +18241,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -18287,12 +18290,12 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -18327,7 +18330,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -18358,7 +18361,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -18394,7 +18397,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -18437,7 +18440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -18480,7 +18483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -18523,7 +18526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -18566,7 +18569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -18609,7 +18612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -18652,7 +18655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -18695,7 +18698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -18738,7 +18741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -18781,7 +18784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -18824,7 +18827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -18859,7 +18862,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -18908,12 +18911,12 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -18948,7 +18951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -18979,7 +18982,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -19012,7 +19015,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -19055,7 +19058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -19098,7 +19101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -19141,7 +19144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -19184,7 +19187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -19227,7 +19230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -19270,7 +19273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -19313,7 +19316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -19356,7 +19359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -19399,7 +19402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -19442,7 +19445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -19477,7 +19480,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -19526,12 +19529,12 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -19566,7 +19569,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -19597,7 +19600,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -19624,7 +19627,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -19664,7 +19667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -19704,7 +19707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -19747,7 +19750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -19787,7 +19790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -19827,7 +19830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -19864,7 +19867,7 @@
       </c>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -19902,7 +19905,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -19942,7 +19945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -19980,7 +19983,7 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -20020,7 +20023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -20053,7 +20056,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -20102,9 +20105,9 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20139,7 +20142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -20170,7 +20173,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -20201,7 +20204,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -20244,7 +20247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -20287,7 +20290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -20330,7 +20333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -20373,7 +20376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -20416,7 +20419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -20459,7 +20462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -20502,7 +20505,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -20545,7 +20548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -20588,7 +20591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -20631,7 +20634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -20664,7 +20667,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -20713,12 +20716,12 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20753,7 +20756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -20784,7 +20787,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -20815,7 +20818,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -20858,7 +20861,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -20901,7 +20904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -20944,7 +20947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -20987,7 +20990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -21030,7 +21033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -21073,7 +21076,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -21116,7 +21119,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -21159,7 +21162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -21202,7 +21205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -21245,7 +21248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -21278,7 +21281,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -21327,12 +21330,12 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21367,7 +21370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -21398,7 +21401,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -21429,7 +21432,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -21472,7 +21475,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -21515,7 +21518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -21558,7 +21561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -21601,7 +21604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -21644,7 +21647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -21687,7 +21690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -21730,7 +21733,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -21773,7 +21776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -21816,7 +21819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -21859,7 +21862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -21892,7 +21895,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -21941,9 +21944,9 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21978,7 +21981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -22009,7 +22012,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -22040,7 +22043,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -22083,7 +22086,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -22126,7 +22129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -22169,7 +22172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -22212,7 +22215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -22255,7 +22258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -22298,7 +22301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -22341,7 +22344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -22384,7 +22387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -22427,7 +22430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -22470,7 +22473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -22503,7 +22506,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -22552,9 +22555,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22589,7 +22592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -22620,7 +22623,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -22651,7 +22654,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -22694,7 +22697,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -22737,7 +22740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -22780,7 +22783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -22823,7 +22826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -22866,7 +22869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -22909,7 +22912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -22952,7 +22955,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -22995,7 +22998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -23038,7 +23041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -23081,7 +23084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -23114,7 +23117,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
@@ -23163,12 +23166,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23203,7 +23206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>13</v>
@@ -23234,7 +23237,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -23265,7 +23268,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -23308,7 +23311,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -23351,7 +23354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -23394,7 +23397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>4</v>
       </c>
@@ -23437,7 +23440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>5</v>
       </c>
@@ -23480,7 +23483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>6</v>
       </c>
@@ -23523,7 +23526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>7</v>
       </c>
@@ -23566,7 +23569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>8</v>
       </c>
@@ -23609,7 +23612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>9</v>
       </c>
@@ -23652,7 +23655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>10</v>
       </c>
@@ -23695,7 +23698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>11</v>
       </c>
@@ -23728,7 +23731,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>12</v>
       </c>
